--- a/data/trans_orig/MED_INDEX-Edad-trans_orig.xlsx
+++ b/data/trans_orig/MED_INDEX-Edad-trans_orig.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -562,47 +562,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
         </is>
       </c>
     </row>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>16/24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,18</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,32</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,24</t>
+          <t>0,39</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,28</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,57</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,31</t>
+          <t>0,45</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,43</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,28</t>
+          <t>0,42</t>
         </is>
       </c>
     </row>
@@ -685,54 +685,54 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,13; 0,25</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,19; 0,48</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,16; 0,38</t>
+          <t>0,3; 0,49</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,21; 0,37</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,4; 0,8</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,22; 0,41</t>
+          <t>0,38; 0,54</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,19; 0,28</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,32; 0,54</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,22; 0,36</t>
+          <t>0,36; 0,49</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>25/34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -742,47 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,47</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,24</t>
+          <t>0,47</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,45</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,74</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>0,57</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,33</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,62</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,2</t>
+          <t>0,52</t>
         </is>
       </c>
     </row>
@@ -795,54 +795,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,17; 0,29</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,35; 0,6</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,18; 0,32</t>
+          <t>0,38; 0,59</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,37; 0,53</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,6; 0,89</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,1; 0,22</t>
+          <t>0,46; 0,68</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,29; 0,38</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,52; 0,75</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,16; 0,25</t>
+          <t>0,45; 0,6</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>35/44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -852,47 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,23</t>
+          <t>0,35</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,57</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,23</t>
+          <t>0,53</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,6</t>
+          <t>0,55</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,8</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,18</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,43</t>
+          <t>0,45</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,69</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,2</t>
+          <t>0,64</t>
         </is>
       </c>
     </row>
@@ -905,54 +905,54 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,6</t>
+          <t>0,29; 0,41</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,46; 0,71</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,16; 0,32</t>
+          <t>0,44; 0,62</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,12; 1,67</t>
+          <t>0,47; 0,65</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,71; 0,9</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,13; 0,23</t>
+          <t>0,65; 0,88</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,16; 1,05</t>
+          <t>0,41; 0,51</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,61; 0,77</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,16; 0,25</t>
+          <t>0,57; 0,72</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>45/54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,47 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,39</t>
+          <t>0,66</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,26</t>
+          <t>0,55</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,16</t>
+          <t>0,66</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,45</t>
+          <t>0,79</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>1,17</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,25</t>
+          <t>0,95</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,42</t>
+          <t>0,72</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,38</t>
+          <t>0,79</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,21</t>
+          <t>0,8</t>
         </is>
       </c>
     </row>
@@ -1015,54 +1015,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,31; 0,49</t>
+          <t>0,59; 0,74</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,18; 0,36</t>
+          <t>0,19; 0,94</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,13; 0,21</t>
+          <t>0,57; 0,76</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,37; 0,55</t>
+          <t>0,71; 0,89</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,39; 0,67</t>
+          <t>1,04; 1,44</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,2; 0,32</t>
+          <t>0,84; 1,07</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,36; 0,49</t>
+          <t>0,66; 0,78</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,3; 0,47</t>
+          <t>0,4; 1,07</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,17; 0,25</t>
+          <t>0,73; 0,88</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>55/64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1072,47 +1072,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,46</t>
+          <t>1,34</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,4</t>
+          <t>1,34</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,22</t>
+          <t>1,3</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,59</t>
+          <t>1,09</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,62</t>
+          <t>1,84</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,46</t>
+          <t>1,54</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,53</t>
+          <t>1,21</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,52</t>
+          <t>1,58</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,34</t>
+          <t>1,42</t>
         </is>
       </c>
     </row>
@@ -1125,54 +1125,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,38; 0,59</t>
+          <t>1,2; 1,49</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,33; 0,51</t>
+          <t>1,21; 1,48</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,17; 0,3</t>
+          <t>1,14; 1,46</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,5; 0,7</t>
+          <t>1,0; 1,2</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,54; 0,71</t>
+          <t>1,71; 2,01</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,39; 0,54</t>
+          <t>1,39; 1,7</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,46; 0,61</t>
+          <t>1,13; 1,29</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,47; 0,59</t>
+          <t>1,48; 1,69</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,29; 0,4</t>
+          <t>1,32; 1,54</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>65/74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1182,47 +1182,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,54</t>
+          <t>1,85</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,51</t>
+          <t>1,7</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,35</t>
+          <t>1,98</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,74</t>
+          <t>1,86</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>3,13</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,54</t>
+          <t>2,22</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,64</t>
+          <t>1,86</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,63</t>
+          <t>2,68</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,45</t>
+          <t>2,1</t>
         </is>
       </c>
     </row>
@@ -1235,54 +1235,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,46; 0,62</t>
+          <t>1,72; 2,02</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,44; 0,61</t>
+          <t>1,52; 1,9</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,3; 0,41</t>
+          <t>1,85; 2,1</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,63; 0,86</t>
+          <t>1,73; 2,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,68; 0,83</t>
+          <t>2,34; 3,69</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,47; 0,62</t>
+          <t>2,06; 2,37</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,57; 0,72</t>
+          <t>1,76; 1,96</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,58; 0,69</t>
+          <t>2,04; 3,43</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,4; 0,5</t>
+          <t>2,0; 2,2</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>75 y más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1292,47 +1292,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,69</t>
+          <t>2,85</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,89</t>
+          <t>2,36</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,67</t>
+          <t>2,54</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,94</t>
+          <t>2,83</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>1,18</t>
+          <t>3,18</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,78</t>
+          <t>3,02</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,81</t>
+          <t>2,84</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>1,03</t>
+          <t>2,86</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,72</t>
+          <t>2,83</t>
         </is>
       </c>
     </row>
@@ -1345,54 +1345,54 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,6; 0,77</t>
+          <t>2,65; 3,04</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,69; 1,02</t>
+          <t>2,1; 2,61</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,6; 0,74</t>
+          <t>2,4; 2,68</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,84; 1,05</t>
+          <t>2,7; 2,97</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>1,08; 1,35</t>
+          <t>2,95; 3,42</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,7; 0,86</t>
+          <t>2,87; 3,19</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,74; 0,88</t>
+          <t>2,73; 2,95</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,92; 1,13</t>
+          <t>2,69; 3,04</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,67; 0,77</t>
+          <t>2,71; 2,94</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
@@ -1402,47 +1402,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>1,14</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0,89</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>1,04</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>1,27</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>1,71</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>1,34</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>1,21</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
           <t>1,31</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>1,36</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>1,33</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>1,58</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>1,82</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>1,06</t>
-        </is>
-      </c>
-      <c r="I18" s="2" t="inlineStr">
-        <is>
-          <t>1,45</t>
-        </is>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>1,59</t>
-        </is>
-      </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>1,19</t>
+          <t>1,2</t>
         </is>
       </c>
     </row>
@@ -1455,398 +1455,65 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>1,17; 1,48</t>
+          <t>1,08; 1,19</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>1,24; 1,48</t>
+          <t>0,58; 1,02</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1,21; 1,47</t>
+          <t>0,99; 1,09</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1,43; 1,74</t>
+          <t>1,21; 1,32</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>1,7; 1,93</t>
+          <t>1,45; 2,32</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,98; 1,15</t>
+          <t>1,28; 1,41</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>1,34; 1,57</t>
+          <t>1,17; 1,25</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>1,5; 1,66</t>
+          <t>1,12; 1,73</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>1,12; 1,26</t>
+          <t>1,16; 1,24</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>65/74</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>Media</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>1,99</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>1,82</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>1,81</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>2,26</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>2,77</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>1,82</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>2,11</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>2,38</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>1,82</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>1,87; 2,12</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>1,69; 1,98</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>1,69; 1,94</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>2,11; 2,43</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>2,42; 3,41</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>1,71; 1,93</t>
-        </is>
-      </c>
-      <c r="I21" s="2" t="inlineStr">
-        <is>
-          <t>2,02; 2,21</t>
-        </is>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>2,12; 2,89</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="inlineStr">
-        <is>
-          <t>1,73; 1,9</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>75 y más</t>
-        </is>
-      </c>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>Media</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>2,59</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>2,52</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>2,79</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>3,07</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>3,43</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>2,8</t>
-        </is>
-      </c>
-      <c r="I22" s="2" t="inlineStr">
-        <is>
-          <t>2,85</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>3,07</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="inlineStr">
-        <is>
-          <t>2,79</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n"/>
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>2,45; 2,75</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>2,33; 2,71</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>2,63; 2,95</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>2,91; 3,23</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>3,26; 3,58</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>2,66; 2,91</t>
-        </is>
-      </c>
-      <c r="I23" s="2" t="inlineStr">
-        <is>
-          <t>2,74; 2,97</t>
-        </is>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>2,93; 3,2</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="inlineStr">
-        <is>
-          <t>2,69; 2,89</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Media</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>1,26</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>1,03</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>1,01</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>1,52</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>1,59</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>1,12</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>1,39</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>1,33</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>1,07</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>1,21; 1,32</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>0,97; 1,09</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>0,97; 1,05</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>1,46; 1,58</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>1,5; 1,85</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>1,08; 1,16</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>1,35; 1,44</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>1,27; 1,52</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>1,04; 1,1</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="12">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A22:A23"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
-    <mergeCell ref="A20:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>

--- a/data/trans_orig/MED_INDEX-Edad-trans_orig.xlsx
+++ b/data/trans_orig/MED_INDEX-Edad-trans_orig.xlsx
@@ -531,7 +531,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Indice de medicación 0-13</t>
+          <t>Indice de medicación 0-13 (tasa de respuesta: 99,65%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/MED_INDEX-Edad-trans_orig.xlsx
+++ b/data/trans_orig/MED_INDEX-Edad-trans_orig.xlsx
@@ -632,7 +632,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,18</t>
+          <t>0,17</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -647,7 +647,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,28</t>
+          <t>0,24</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -662,7 +662,7 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,23</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -685,12 +685,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,13; 0,25</t>
+          <t>0,13; 0,24</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,19; 0,48</t>
+          <t>0,18; 0,47</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -700,7 +700,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,21; 0,37</t>
+          <t>0,18; 0,31</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -715,12 +715,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,19; 0,28</t>
+          <t>0,17; 0,25</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,32; 0,54</t>
+          <t>0,32; 0,56</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -742,7 +742,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,22</t>
+          <t>0,19</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -757,7 +757,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,45</t>
+          <t>0,4</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -772,7 +772,7 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,33</t>
+          <t>0,29</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -795,7 +795,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,17; 0,29</t>
+          <t>0,15; 0,24</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -810,12 +810,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,37; 0,53</t>
+          <t>0,33; 0,48</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,6; 0,89</t>
+          <t>0,6; 0,9</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -825,12 +825,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,29; 0,38</t>
+          <t>0,25; 0,34</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,52; 0,75</t>
+          <t>0,53; 0,75</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -852,7 +852,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,35</t>
+          <t>0,33</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -867,7 +867,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,55</t>
+          <t>0,52</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -882,7 +882,7 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,45</t>
+          <t>0,43</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -905,7 +905,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,29; 0,41</t>
+          <t>0,28; 0,4</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -920,12 +920,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,47; 0,65</t>
+          <t>0,45; 0,6</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,71; 0,9</t>
+          <t>0,71; 0,91</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -935,12 +935,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,41; 0,51</t>
+          <t>0,39; 0,48</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,61; 0,77</t>
+          <t>0,62; 0,78</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -962,22 +962,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>0,63</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0,55</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>0,66</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>0,55</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>0,66</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,79</t>
+          <t>0,71</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -992,7 +992,7 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,72</t>
+          <t>0,67</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1015,12 +1015,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,59; 0,74</t>
+          <t>0,57; 0,72</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,19; 0,94</t>
+          <t>0,21; 0,94</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1030,12 +1030,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,71; 0,89</t>
+          <t>0,64; 0,8</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,04; 1,44</t>
+          <t>1,05; 1,44</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1045,7 +1045,7 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,66; 0,78</t>
+          <t>0,62; 0,73</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1072,14 +1072,14 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
           <t>1,34</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>1,34</t>
-        </is>
-      </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
           <t>1,3</t>
@@ -1087,7 +1087,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,09</t>
+          <t>1,08</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1102,7 +1102,7 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>1,21</t>
+          <t>1,14</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1125,12 +1125,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,2; 1,49</t>
+          <t>1,09; 1,33</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,21; 1,48</t>
+          <t>1,22; 1,49</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1140,12 +1140,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,2</t>
+          <t>1,0; 1,19</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,71; 2,01</t>
+          <t>1,7; 2,03</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,13; 1,29</t>
+          <t>1,07; 1,22</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1182,7 +1182,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>1,85</t>
+          <t>1,91</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1197,7 +1197,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>1,86</t>
+          <t>1,91</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1212,7 +1212,7 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>1,86</t>
+          <t>1,91</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1235,12 +1235,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,72; 2,02</t>
+          <t>1,76; 2,06</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,52; 1,9</t>
+          <t>1,51; 1,88</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1250,12 +1250,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,73; 2,0</t>
+          <t>1,78; 2,05</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>2,34; 3,69</t>
+          <t>2,36; 3,75</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1265,12 +1265,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>1,76; 1,96</t>
+          <t>1,82; 2,02</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>2,04; 3,43</t>
+          <t>2,02; 3,45</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1292,7 +1292,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,85</t>
+          <t>2,82</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1307,7 +1307,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>2,83</t>
+          <t>2,79</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1322,7 +1322,7 @@
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>2,84</t>
+          <t>2,8</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -1345,12 +1345,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,65; 3,04</t>
+          <t>2,67; 2,99</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,1; 2,61</t>
+          <t>2,13; 2,63</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1360,12 +1360,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,7; 2,97</t>
+          <t>2,67; 2,94</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>2,95; 3,42</t>
+          <t>2,94; 3,41</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1375,12 +1375,12 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>2,73; 2,95</t>
+          <t>2,7; 2,92</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>2,69; 3,04</t>
+          <t>2,67; 3,05</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1402,7 +1402,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>1,14</t>
+          <t>1,05</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>1,27</t>
+          <t>1,21</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>1,21</t>
+          <t>1,13</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -1455,12 +1455,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>1,08; 1,19</t>
+          <t>1,0; 1,1</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,58; 1,02</t>
+          <t>0,59; 1,02</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1470,12 +1470,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1,21; 1,32</t>
+          <t>1,16; 1,26</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>1,45; 2,32</t>
+          <t>1,46; 2,44</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -1485,12 +1485,12 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>1,17; 1,25</t>
+          <t>1,1; 1,17</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>1,12; 1,73</t>
+          <t>1,11; 1,68</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">

--- a/data/trans_orig/MED_INDEX-Edad-trans_orig.xlsx
+++ b/data/trans_orig/MED_INDEX-Edad-trans_orig.xlsx
@@ -562,47 +562,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>0,3</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0,39</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>0,17</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,32</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,39</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>0,59</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0,45</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>0,24</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>0,57</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>0,45</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
+          <t>0,44</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0,42</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
           <t>0,2</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>0,43</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>0,42</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>0,19; 0,44</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0,3; 0,49</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>0,13; 0,24</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>0,18; 0,47</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>0,3; 0,49</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>0,43; 0,79</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0,38; 0,54</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>0,18; 0,31</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>0,4; 0,8</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>0,38; 0,54</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
+          <t>0,34; 0,56</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>0,36; 0,49</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
           <t>0,17; 0,25</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>0,32; 0,56</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>0,36; 0,49</t>
         </is>
       </c>
     </row>
@@ -742,47 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>0,49</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0,47</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>0,19</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,47</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,47</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>0,62</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0,57</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>0,4</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>0,74</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>0,57</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
+          <t>0,56</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0,52</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
           <t>0,29</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>0,62</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>0,52</t>
         </is>
       </c>
     </row>
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>0,37; 0,62</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0,38; 0,59</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>0,15; 0,24</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>0,35; 0,6</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>0,38; 0,59</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>0,51; 0,75</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0,46; 0,68</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>0,33; 0,48</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>0,6; 0,9</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>0,46; 0,68</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
+          <t>0,47; 0,64</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>0,45; 0,6</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
           <t>0,25; 0,34</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>0,53; 0,75</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>0,45; 0,6</t>
         </is>
       </c>
     </row>
@@ -852,47 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>0,55</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0,53</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>0,33</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,57</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,53</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>0,79</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>0,75</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>0,52</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>0,8</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>0,75</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
+          <t>0,67</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>0,64</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>0,43</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>0,69</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>0,64</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>0,45; 0,68</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0,44; 0,62</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>0,28; 0,4</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>0,46; 0,71</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>0,44; 0,62</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>0,69; 0,9</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0,65; 0,88</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>0,45; 0,6</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>0,71; 0,91</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>0,65; 0,88</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
+          <t>0,6; 0,75</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>0,57; 0,72</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
           <t>0,39; 0,48</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>0,62; 0,78</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>0,57; 0,72</t>
         </is>
       </c>
     </row>
@@ -962,47 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>0,87</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0,66</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>0,63</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>0,55</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>0,66</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>1,12</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0,95</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>0,71</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>1,17</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>0,95</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
+          <t>1,0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>0,8</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
           <t>0,67</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>0,79</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>0,8</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>0,75; 1,02</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0,57; 0,76</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>0,57; 0,72</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>0,21; 0,94</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>0,57; 0,76</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>1,01; 1,23</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>0,84; 1,07</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>0,64; 0,8</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>1,05; 1,44</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>0,84; 1,07</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
+          <t>0,92; 1,09</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>0,73; 0,88</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
           <t>0,62; 0,73</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>0,4; 1,07</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>0,73; 0,88</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1072,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>1,32</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1,3</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>1,2</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>1,34</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>1,3</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>1,86</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>1,54</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>1,08</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>1,84</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>1,54</t>
-        </is>
-      </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
+          <t>1,59</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>1,42</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>1,14</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>1,58</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>1,42</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>1,2; 1,47</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>1,14; 1,46</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>1,09; 1,33</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>1,22; 1,49</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>1,14; 1,46</t>
-        </is>
-      </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>1,72; 2,05</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>1,39; 1,7</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>1,0; 1,19</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>1,7; 2,03</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>1,39; 1,7</t>
-        </is>
-      </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
+          <t>1,48; 1,69</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>1,32; 1,54</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>1,07; 1,22</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>1,48; 1,69</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>1,32; 1,54</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1182,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>1,65</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>1,98</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>1,91</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>1,7</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>1,98</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>2,46</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>2,22</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>1,91</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>3,13</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>2,22</t>
-        </is>
-      </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
+          <t>2,08</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>2,1</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>1,91</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>2,68</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>2,1</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1235,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>1,47; 1,83</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>1,85; 2,1</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>1,76; 2,06</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>1,51; 1,88</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>1,85; 2,1</t>
-        </is>
-      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>2,27; 2,64</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>2,06; 2,37</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>1,78; 2,05</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>2,36; 3,75</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>2,06; 2,37</t>
-        </is>
-      </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
+          <t>1,95; 2,22</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>2,0; 2,2</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>1,82; 2,02</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>2,02; 3,45</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>2,0; 2,2</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1292,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>2,38</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>2,54</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>2,82</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>2,36</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>2,54</t>
-        </is>
-      </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>3,19</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>3,02</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>2,79</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>3,18</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>3,02</t>
-        </is>
-      </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
+          <t>2,87</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>2,83</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
           <t>2,8</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>2,86</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>2,83</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1345,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>2,14; 2,65</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>2,4; 2,68</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
           <t>2,67; 2,99</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>2,13; 2,63</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>2,4; 2,68</t>
-        </is>
-      </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
+          <t>2,95; 3,42</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>2,87; 3,19</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
           <t>2,67; 2,94</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>2,94; 3,41</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>2,87; 3,19</t>
-        </is>
-      </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
+          <t>2,68; 3,07</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>2,71; 2,94</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
           <t>2,7; 2,92</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>2,67; 3,05</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>2,71; 2,94</t>
         </is>
       </c>
     </row>
@@ -1402,47 +1402,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>0,99</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>1,04</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
           <t>1,05</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>0,89</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>1,04</t>
-        </is>
-      </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
+          <t>1,47</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>1,34</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
           <t>1,21</t>
         </is>
       </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>1,71</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>1,34</t>
-        </is>
-      </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
+          <t>1,24</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
           <t>1,13</t>
-        </is>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>1,31</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="inlineStr">
-        <is>
-          <t>1,2</t>
         </is>
       </c>
     </row>
@@ -1455,47 +1455,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
+          <t>0,93; 1,05</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>0,99; 1,09</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
           <t>1,0; 1,1</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>0,59; 1,02</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>0,99; 1,09</t>
-        </is>
-      </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
+          <t>1,41; 1,54</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>1,28; 1,41</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
           <t>1,16; 1,26</t>
         </is>
       </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>1,46; 2,44</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>1,28; 1,41</t>
-        </is>
-      </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
+          <t>1,19; 1,28</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>1,16; 1,24</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
           <t>1,1; 1,17</t>
-        </is>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>1,11; 1,68</t>
-        </is>
-      </c>
-      <c r="K19" s="2" t="inlineStr">
-        <is>
-          <t>1,16; 1,24</t>
         </is>
       </c>
     </row>
